--- a/data/pca/factorExposure/factorExposure_2010-07-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-07-29.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.009142177473264115</v>
+        <v>-0.01655400489292866</v>
       </c>
       <c r="C2">
-        <v>-0.001456446911860042</v>
+        <v>-0.001083194656025663</v>
       </c>
       <c r="D2">
-        <v>0.008060685914642802</v>
+        <v>0.005618091146358428</v>
       </c>
       <c r="E2">
-        <v>-0.007045934898816836</v>
+        <v>0.002574611231646008</v>
       </c>
       <c r="F2">
-        <v>0.01587087086376401</v>
+        <v>0.01287640227429513</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1111838241964224</v>
+        <v>-0.0965422350093037</v>
       </c>
       <c r="C4">
-        <v>0.07857160369100555</v>
+        <v>-0.01905813642094367</v>
       </c>
       <c r="D4">
-        <v>0.004922887774403827</v>
+        <v>0.072364217064823</v>
       </c>
       <c r="E4">
-        <v>-0.1563522248368398</v>
+        <v>-0.02672808183270641</v>
       </c>
       <c r="F4">
-        <v>0.03898116033592348</v>
+        <v>-0.04046037756718886</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1282162274943338</v>
+        <v>-0.1492960327465903</v>
       </c>
       <c r="C6">
-        <v>0.05003852168789721</v>
+        <v>-0.02402979323949206</v>
       </c>
       <c r="D6">
-        <v>-0.00825445587248295</v>
+        <v>-0.01623438504004066</v>
       </c>
       <c r="E6">
-        <v>-0.04865529243618592</v>
+        <v>-0.01150002939131637</v>
       </c>
       <c r="F6">
-        <v>-0.04889902937439421</v>
+        <v>-0.04117112758913236</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06699913412415986</v>
+        <v>-0.06313000730045977</v>
       </c>
       <c r="C7">
-        <v>0.0867750379138332</v>
+        <v>-0.001441601514006977</v>
       </c>
       <c r="D7">
-        <v>0.006548230421335737</v>
+        <v>0.04878287708455949</v>
       </c>
       <c r="E7">
-        <v>-0.01851182065113778</v>
+        <v>-0.01646671578309993</v>
       </c>
       <c r="F7">
-        <v>0.02389611583828981</v>
+        <v>-0.05803268379909921</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.04056242036153509</v>
+        <v>-0.06087700577298581</v>
       </c>
       <c r="C8">
-        <v>0.008144058275569412</v>
+        <v>0.01253756370257625</v>
       </c>
       <c r="D8">
-        <v>0.005692781139875267</v>
+        <v>0.02624877374797039</v>
       </c>
       <c r="E8">
-        <v>-0.1122186041937175</v>
+        <v>-0.008841362184747389</v>
       </c>
       <c r="F8">
-        <v>0.03922931377017847</v>
+        <v>0.0219170595096721</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08910001546018402</v>
+        <v>-0.07472333607146854</v>
       </c>
       <c r="C9">
-        <v>0.06121072210738168</v>
+        <v>-0.01582232571848983</v>
       </c>
       <c r="D9">
-        <v>-0.01306805762934869</v>
+        <v>0.07043949072564587</v>
       </c>
       <c r="E9">
-        <v>-0.1399658507024091</v>
+        <v>-0.01940937657257668</v>
       </c>
       <c r="F9">
-        <v>0.02023398077375934</v>
+        <v>-0.06182778721439103</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1289794888229635</v>
+        <v>-0.09028352863477737</v>
       </c>
       <c r="C10">
-        <v>-0.1836179187311422</v>
+        <v>-0.01201865604270911</v>
       </c>
       <c r="D10">
-        <v>0.01639704792473212</v>
+        <v>-0.1740789758056895</v>
       </c>
       <c r="E10">
-        <v>0.0526998057567192</v>
+        <v>0.03513167437298588</v>
       </c>
       <c r="F10">
-        <v>-0.01339708272684967</v>
+        <v>0.05269351211675886</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.06893400096959215</v>
+        <v>-0.08983983406162252</v>
       </c>
       <c r="C11">
-        <v>0.06101445657459438</v>
+        <v>-0.01506835292403901</v>
       </c>
       <c r="D11">
-        <v>-0.04225819071722607</v>
+        <v>0.1009809915034408</v>
       </c>
       <c r="E11">
-        <v>-0.1109602452578252</v>
+        <v>-0.04007413928250991</v>
       </c>
       <c r="F11">
-        <v>0.02048035706131906</v>
+        <v>-0.02864138895943333</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07353211718313868</v>
+        <v>-0.0954833792124703</v>
       </c>
       <c r="C12">
-        <v>0.06893494211256689</v>
+        <v>-0.0127646677657466</v>
       </c>
       <c r="D12">
-        <v>-0.04994688194846662</v>
+        <v>0.1051720872527352</v>
       </c>
       <c r="E12">
-        <v>-0.1312716019941104</v>
+        <v>-0.03776966192824942</v>
       </c>
       <c r="F12">
-        <v>0.01657981365321748</v>
+        <v>-0.03236840954867898</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04963981640931316</v>
+        <v>-0.0449828921284641</v>
       </c>
       <c r="C13">
-        <v>0.04220262267564347</v>
+        <v>-0.004984863839863372</v>
       </c>
       <c r="D13">
-        <v>0.02449187814023604</v>
+        <v>0.03139818066909444</v>
       </c>
       <c r="E13">
-        <v>-0.06514294891032527</v>
+        <v>0.01583865817643696</v>
       </c>
       <c r="F13">
-        <v>0.04571574974860844</v>
+        <v>-0.0199645546552933</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.04601731472061214</v>
+        <v>-0.02268570473754229</v>
       </c>
       <c r="C14">
-        <v>0.03398928212145659</v>
+        <v>-0.01537989292175401</v>
       </c>
       <c r="D14">
-        <v>-0.01112832156183756</v>
+        <v>0.02619981460404866</v>
       </c>
       <c r="E14">
-        <v>-0.06420519568069079</v>
+        <v>-0.01533083263584712</v>
       </c>
       <c r="F14">
-        <v>0.02097146422107475</v>
+        <v>-0.02606756565931897</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03028014339140569</v>
+        <v>-0.03408879718224721</v>
       </c>
       <c r="C15">
-        <v>0.01781424030205012</v>
+        <v>-0.006832961195774707</v>
       </c>
       <c r="D15">
-        <v>0.06407192437924196</v>
+        <v>0.03245131754948181</v>
       </c>
       <c r="E15">
-        <v>-0.006400150602480653</v>
+        <v>-0.004562839108824347</v>
       </c>
       <c r="F15">
-        <v>0.0009469552959891084</v>
+        <v>-0.03237044416818914</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08030253433463377</v>
+        <v>-0.07778145092514917</v>
       </c>
       <c r="C16">
-        <v>0.07865097392185805</v>
+        <v>-0.006902841942245144</v>
       </c>
       <c r="D16">
-        <v>-0.03631856155265794</v>
+        <v>0.1037212619000496</v>
       </c>
       <c r="E16">
-        <v>-0.1120767613790552</v>
+        <v>-0.05595446536001413</v>
       </c>
       <c r="F16">
-        <v>0.007013871428731528</v>
+        <v>-0.03641100757266327</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01586443031972209</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.004145392594808475</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02573117148804487</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01021596452308663</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.03133372780668158</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04304579034742741</v>
+        <v>-0.06377251916619991</v>
       </c>
       <c r="C20">
-        <v>0.02609573478083816</v>
+        <v>-0.004628766154567382</v>
       </c>
       <c r="D20">
-        <v>0.03046090175271106</v>
+        <v>0.05582177973635152</v>
       </c>
       <c r="E20">
-        <v>-0.06232957397394579</v>
+        <v>-0.04760752757962369</v>
       </c>
       <c r="F20">
-        <v>0.008443440328367956</v>
+        <v>-0.03088656117584642</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03239106674067192</v>
+        <v>-0.03937303272467484</v>
       </c>
       <c r="C21">
-        <v>0.01691629809573872</v>
+        <v>-0.008621841124921001</v>
       </c>
       <c r="D21">
-        <v>-0.007966612506718764</v>
+        <v>0.03024597298577066</v>
       </c>
       <c r="E21">
-        <v>-0.04738764722570193</v>
+        <v>0.01666357663826568</v>
       </c>
       <c r="F21">
-        <v>0.007268021404182014</v>
+        <v>0.01725056264124014</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05348688320455017</v>
+        <v>-0.04295617352557417</v>
       </c>
       <c r="C22">
-        <v>0.01605376886335566</v>
+        <v>-0.0005318896973393251</v>
       </c>
       <c r="D22">
-        <v>0.6566663368797065</v>
+        <v>-0.001478957663959058</v>
       </c>
       <c r="E22">
-        <v>0.006619077473355493</v>
+        <v>-0.03488362138497448</v>
       </c>
       <c r="F22">
-        <v>0.006011522894038663</v>
+        <v>0.02852929842757752</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05407638971874751</v>
+        <v>-0.04299405007320543</v>
       </c>
       <c r="C23">
-        <v>0.01715827125106448</v>
+        <v>-0.0005554002172832055</v>
       </c>
       <c r="D23">
-        <v>0.6588372496128579</v>
+        <v>-0.001299171707180005</v>
       </c>
       <c r="E23">
-        <v>0.001190780380620274</v>
+        <v>-0.03524827647723</v>
       </c>
       <c r="F23">
-        <v>0.007411703999913966</v>
+        <v>0.02794745866020531</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07608788291491732</v>
+        <v>-0.08307007898682968</v>
       </c>
       <c r="C24">
-        <v>0.0724409908890269</v>
+        <v>-0.006688677005843517</v>
       </c>
       <c r="D24">
-        <v>-0.02930183530290764</v>
+        <v>0.1070186137848343</v>
       </c>
       <c r="E24">
-        <v>-0.1123879650124217</v>
+        <v>-0.04395745620581221</v>
       </c>
       <c r="F24">
-        <v>0.007086182780073898</v>
+        <v>-0.02907974374932997</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07594749979385178</v>
+        <v>-0.08762792536481886</v>
       </c>
       <c r="C25">
-        <v>0.05452273098520577</v>
+        <v>-0.008978354216757337</v>
       </c>
       <c r="D25">
-        <v>-0.04885534073487132</v>
+        <v>0.0918047009280684</v>
       </c>
       <c r="E25">
-        <v>-0.1177415917162021</v>
+        <v>-0.02537306255146383</v>
       </c>
       <c r="F25">
-        <v>0.007821908541617758</v>
+        <v>-0.03845299824573765</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04040534863052151</v>
+        <v>-0.05776429487253842</v>
       </c>
       <c r="C26">
-        <v>0.02288030726761434</v>
+        <v>-0.01622135469001372</v>
       </c>
       <c r="D26">
-        <v>0.01719150727456382</v>
+        <v>0.02266108274082257</v>
       </c>
       <c r="E26">
-        <v>-0.0833368994508249</v>
+        <v>-0.02270298296323517</v>
       </c>
       <c r="F26">
-        <v>-0.03860968328323264</v>
+        <v>-0.00167036501267574</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1474494647325551</v>
+        <v>-0.1354021952345804</v>
       </c>
       <c r="C28">
-        <v>-0.2764072309386259</v>
+        <v>-0.008870219196458199</v>
       </c>
       <c r="D28">
-        <v>-0.006126483168626019</v>
+        <v>-0.2803442874745533</v>
       </c>
       <c r="E28">
-        <v>-0.02069634962356829</v>
+        <v>0.06937941517115194</v>
       </c>
       <c r="F28">
-        <v>0.0239603774510866</v>
+        <v>-0.04621852485873023</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.04356307085720707</v>
+        <v>-0.02795019256337935</v>
       </c>
       <c r="C29">
-        <v>0.03255395739927068</v>
+        <v>-0.009681646870419825</v>
       </c>
       <c r="D29">
-        <v>-0.01579680558446787</v>
+        <v>0.02450337147229648</v>
       </c>
       <c r="E29">
-        <v>-0.05938613796337403</v>
+        <v>-0.007798584276956613</v>
       </c>
       <c r="F29">
-        <v>0.02824995505652233</v>
+        <v>0.007082562488233606</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.09219422940377851</v>
+        <v>-0.06795315956144125</v>
       </c>
       <c r="C30">
-        <v>0.06004512566155489</v>
+        <v>-0.00952333334428841</v>
       </c>
       <c r="D30">
-        <v>-0.01473891173047837</v>
+        <v>0.0650475543090189</v>
       </c>
       <c r="E30">
-        <v>-0.2685367646854901</v>
+        <v>-0.01905678862895382</v>
       </c>
       <c r="F30">
-        <v>0.02362733973188456</v>
+        <v>-0.1241724543152535</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02630273538247399</v>
+        <v>-0.04914990299413693</v>
       </c>
       <c r="C31">
-        <v>0.05389678561429972</v>
+        <v>-0.01548153251281667</v>
       </c>
       <c r="D31">
-        <v>0.004219781260409154</v>
+        <v>0.02803159337331972</v>
       </c>
       <c r="E31">
-        <v>-0.04040197543195631</v>
+        <v>-0.02594527979291003</v>
       </c>
       <c r="F31">
-        <v>-0.0009406649416212457</v>
+        <v>0.002626425663605572</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05899271574274563</v>
+        <v>-0.04883170138871749</v>
       </c>
       <c r="C32">
-        <v>0.00441124356915504</v>
+        <v>-0.001323423932549772</v>
       </c>
       <c r="D32">
-        <v>-0.03905386625013774</v>
+        <v>0.02069455181266659</v>
       </c>
       <c r="E32">
-        <v>-0.08516996332978376</v>
+        <v>-0.02282948441383139</v>
       </c>
       <c r="F32">
-        <v>-0.01099437647972466</v>
+        <v>-0.005644070297997915</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09669632972730346</v>
+        <v>-0.0933558921369568</v>
       </c>
       <c r="C33">
-        <v>0.07063472857615423</v>
+        <v>-0.01204880959610648</v>
       </c>
       <c r="D33">
-        <v>-0.01982134252956826</v>
+        <v>0.08266902721115685</v>
       </c>
       <c r="E33">
-        <v>-0.09152304068043308</v>
+        <v>-0.04356210055836753</v>
       </c>
       <c r="F33">
-        <v>-0.03330793476654412</v>
+        <v>-0.04452254570457304</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06720168579450453</v>
+        <v>-0.07037714615935783</v>
       </c>
       <c r="C34">
-        <v>0.05781307581194153</v>
+        <v>-0.01432455910758361</v>
       </c>
       <c r="D34">
-        <v>-0.04802244459415078</v>
+        <v>0.08624993918669097</v>
       </c>
       <c r="E34">
-        <v>-0.09378775119284682</v>
+        <v>-0.0255008384173508</v>
       </c>
       <c r="F34">
-        <v>-0.004085871531528607</v>
+        <v>-0.05417818917670713</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02471363041302151</v>
+        <v>-0.02435546094678259</v>
       </c>
       <c r="C35">
-        <v>0.02679269047211328</v>
+        <v>-0.002453282767525799</v>
       </c>
       <c r="D35">
-        <v>-0.01038927395845423</v>
+        <v>0.01006241766652719</v>
       </c>
       <c r="E35">
-        <v>-0.02178692973436696</v>
+        <v>-0.01252611930685291</v>
       </c>
       <c r="F35">
-        <v>-0.009427372383286519</v>
+        <v>-0.01329822019440237</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.03197032167864117</v>
+        <v>-0.02690741633367602</v>
       </c>
       <c r="C36">
-        <v>0.02083054055791558</v>
+        <v>-0.007467747591793867</v>
       </c>
       <c r="D36">
-        <v>0.01445967566700329</v>
+        <v>0.03816945408873345</v>
       </c>
       <c r="E36">
-        <v>-0.08127209019666569</v>
+        <v>-0.01615949044876394</v>
       </c>
       <c r="F36">
-        <v>0.002010216594711935</v>
+        <v>-0.01335216178152658</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02997646143203853</v>
+        <v>-0.003358431444705217</v>
       </c>
       <c r="C38">
-        <v>0.05945151051774505</v>
+        <v>-0.0006586674935586738</v>
       </c>
       <c r="D38">
-        <v>0.01950688701893656</v>
+        <v>0.004069381946107836</v>
       </c>
       <c r="E38">
-        <v>0.1026813644223432</v>
+        <v>-0.00490607109827115</v>
       </c>
       <c r="F38">
-        <v>0.02328623444517064</v>
+        <v>0.00383717853304339</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09368033152024828</v>
+        <v>-0.1135924803385186</v>
       </c>
       <c r="C39">
-        <v>0.07757843353312296</v>
+        <v>-0.02118120879521772</v>
       </c>
       <c r="D39">
-        <v>-0.1149422453997531</v>
+        <v>0.1390882076928947</v>
       </c>
       <c r="E39">
-        <v>-0.1393168923226169</v>
+        <v>-0.04873432121394265</v>
       </c>
       <c r="F39">
-        <v>0.008173946461231572</v>
+        <v>-0.0404768501202678</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02580649195500996</v>
+        <v>-0.03759402883805199</v>
       </c>
       <c r="C40">
-        <v>0.06803091159257693</v>
+        <v>-0.008148455164819914</v>
       </c>
       <c r="D40">
-        <v>0.01963308371514056</v>
+        <v>0.0235161570322364</v>
       </c>
       <c r="E40">
-        <v>-0.0867757736375338</v>
+        <v>-0.00265879182421265</v>
       </c>
       <c r="F40">
-        <v>0.02108806807763944</v>
+        <v>0.01608280627833701</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.0325064434024283</v>
+        <v>-0.02628074668400941</v>
       </c>
       <c r="C41">
-        <v>0.02971683215769725</v>
+        <v>-0.006717019869213225</v>
       </c>
       <c r="D41">
-        <v>-0.02802864070737217</v>
+        <v>0.01243260612586633</v>
       </c>
       <c r="E41">
-        <v>0.002095499444533448</v>
+        <v>-0.01162383963105893</v>
       </c>
       <c r="F41">
-        <v>-0.0005921239928078703</v>
+        <v>0.01267098737548294</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04980061912812943</v>
+        <v>-0.04373591305980521</v>
       </c>
       <c r="C43">
-        <v>0.05453589386760353</v>
+        <v>-0.007541875657088092</v>
       </c>
       <c r="D43">
-        <v>0.005733829207334216</v>
+        <v>0.02017452315167677</v>
       </c>
       <c r="E43">
-        <v>-0.01602148975048018</v>
+        <v>-0.02549278065177323</v>
       </c>
       <c r="F43">
-        <v>0.01050464430921052</v>
+        <v>0.01150718121473279</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1003975588861748</v>
+        <v>-0.07607789357774612</v>
       </c>
       <c r="C44">
-        <v>0.0802972108442005</v>
+        <v>-0.02566951738006869</v>
       </c>
       <c r="D44">
-        <v>0.06038415108931169</v>
+        <v>0.08518621573113949</v>
       </c>
       <c r="E44">
-        <v>-0.1761280897394045</v>
+        <v>-0.06196490216076637</v>
       </c>
       <c r="F44">
-        <v>0.09380358555610946</v>
+        <v>-0.1839087847970413</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.04842415836243534</v>
+        <v>-0.02501111812655981</v>
       </c>
       <c r="C46">
-        <v>0.04530936824039605</v>
+        <v>-0.004073152617990221</v>
       </c>
       <c r="D46">
-        <v>0.0398757188476007</v>
+        <v>0.009507738101664734</v>
       </c>
       <c r="E46">
-        <v>-0.02467643330238214</v>
+        <v>-0.02136056127468153</v>
       </c>
       <c r="F46">
-        <v>-0.001138887498678441</v>
+        <v>0.005120221733307745</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05053981854954138</v>
+        <v>-0.05318005572558773</v>
       </c>
       <c r="C47">
-        <v>0.04745957353206895</v>
+        <v>-0.003405720548658819</v>
       </c>
       <c r="D47">
-        <v>0.006889876974309036</v>
+        <v>0.01477054388676177</v>
       </c>
       <c r="E47">
-        <v>-0.02350895714841958</v>
+        <v>-0.02279376019347915</v>
       </c>
       <c r="F47">
-        <v>-0.02074346741997262</v>
+        <v>0.04714720341916815</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04528462455424014</v>
+        <v>-0.04874567640194268</v>
       </c>
       <c r="C48">
-        <v>0.01572394761898817</v>
+        <v>-0.003949969608206864</v>
       </c>
       <c r="D48">
-        <v>-0.00770566804542903</v>
+        <v>0.03937667293306076</v>
       </c>
       <c r="E48">
-        <v>-0.08606323956993471</v>
+        <v>0.009703131983508251</v>
       </c>
       <c r="F48">
-        <v>-0.02898737224435539</v>
+        <v>-0.0183025096958314</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2376603930016433</v>
+        <v>-0.2083908589203842</v>
       </c>
       <c r="C49">
-        <v>0.06519614495776031</v>
+        <v>-0.01740080931749508</v>
       </c>
       <c r="D49">
-        <v>-0.04026692853821964</v>
+        <v>-0.007268333265692096</v>
       </c>
       <c r="E49">
-        <v>0.3068876891889561</v>
+        <v>-0.04626578540642324</v>
       </c>
       <c r="F49">
-        <v>-0.02708340502891252</v>
+        <v>-0.03396741578724607</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03606433085125614</v>
+        <v>-0.04902631497041984</v>
       </c>
       <c r="C50">
-        <v>0.04804985544080566</v>
+        <v>-0.0117774206328123</v>
       </c>
       <c r="D50">
-        <v>-0.009940051090647103</v>
+        <v>0.02751714730428576</v>
       </c>
       <c r="E50">
-        <v>-0.06047313880543513</v>
+        <v>-0.02938685382241141</v>
       </c>
       <c r="F50">
-        <v>-0.02775736415491988</v>
+        <v>-0.005428023481207032</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.03500538522169144</v>
+        <v>-0.003694273386332585</v>
       </c>
       <c r="C51">
-        <v>0.005231806827831624</v>
+        <v>-0.0008526427547493243</v>
       </c>
       <c r="D51">
-        <v>-0.0006174293118267604</v>
+        <v>-0.001443225185213099</v>
       </c>
       <c r="E51">
-        <v>0.06070927327195873</v>
+        <v>-0.00180743036606124</v>
       </c>
       <c r="F51">
-        <v>0.05606507925706646</v>
+        <v>-0.003943264701266256</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.0005262135368389911</v>
+        <v>-0.1400161512373517</v>
       </c>
       <c r="C52">
-        <v>0.002034569072068449</v>
+        <v>-0.01246686639752886</v>
       </c>
       <c r="D52">
-        <v>-0.01934644523872438</v>
+        <v>0.05478316660358061</v>
       </c>
       <c r="E52">
-        <v>-0.005375192180206479</v>
+        <v>-0.01337743652738393</v>
       </c>
       <c r="F52">
-        <v>-0.001014643021664597</v>
+        <v>-0.02951463417626072</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1428711288904681</v>
+        <v>-0.1715079285208345</v>
       </c>
       <c r="C53">
-        <v>0.06111744091318599</v>
+        <v>-0.01501580762051918</v>
       </c>
       <c r="D53">
-        <v>0.006909431211163143</v>
+        <v>0.02355557358668264</v>
       </c>
       <c r="E53">
-        <v>0.08490666638710032</v>
+        <v>-0.03859384164542801</v>
       </c>
       <c r="F53">
-        <v>-0.02129267542917847</v>
+        <v>-0.05700345923603584</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05544483826674121</v>
+        <v>-0.0221549262631896</v>
       </c>
       <c r="C54">
-        <v>0.02769272905294158</v>
+        <v>-0.01323138050479678</v>
       </c>
       <c r="D54">
-        <v>0.007597921972573496</v>
+        <v>0.02707135664772693</v>
       </c>
       <c r="E54">
-        <v>-0.1328781271633558</v>
+        <v>-0.01387245762167281</v>
       </c>
       <c r="F54">
-        <v>-0.02013487464221405</v>
+        <v>-0.001853421207007317</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08690530202244237</v>
+        <v>-0.1136967280213743</v>
       </c>
       <c r="C55">
-        <v>0.05539231063140159</v>
+        <v>-0.01436031671822566</v>
       </c>
       <c r="D55">
-        <v>-0.03152466906302346</v>
+        <v>0.02008974551145659</v>
       </c>
       <c r="E55">
-        <v>0.01460895166834539</v>
+        <v>-0.02928297447947377</v>
       </c>
       <c r="F55">
-        <v>0.01528295223674086</v>
+        <v>-0.04750044964252512</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1298036695469841</v>
+        <v>-0.1756715271756991</v>
       </c>
       <c r="C56">
-        <v>0.09189330382766391</v>
+        <v>-0.01193595258232704</v>
       </c>
       <c r="D56">
-        <v>-0.01141185113965417</v>
+        <v>0.02548286032853115</v>
       </c>
       <c r="E56">
-        <v>0.0353614598425466</v>
+        <v>-0.04302173438079411</v>
       </c>
       <c r="F56">
-        <v>0.0009476994546215522</v>
+        <v>-0.02583257791839887</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.03309489511473764</v>
+        <v>-0.04732878931659987</v>
       </c>
       <c r="C58">
-        <v>0.03044314453085225</v>
+        <v>-0.00432064758339853</v>
       </c>
       <c r="D58">
-        <v>0.03329906065786008</v>
+        <v>0.05716528730817807</v>
       </c>
       <c r="E58">
-        <v>-0.03163489331046407</v>
+        <v>-0.01218129837892933</v>
       </c>
       <c r="F58">
-        <v>-0.06025165763302232</v>
+        <v>0.04297381953728347</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2104498175741814</v>
+        <v>-0.1688501559743382</v>
       </c>
       <c r="C59">
-        <v>-0.2445084266124167</v>
+        <v>-0.01075274539271499</v>
       </c>
       <c r="D59">
-        <v>-0.04951397011704091</v>
+        <v>-0.2327375525969662</v>
       </c>
       <c r="E59">
-        <v>0.0267124322148516</v>
+        <v>0.04599675219340653</v>
       </c>
       <c r="F59">
-        <v>0.03675527627637791</v>
+        <v>0.03068361886355979</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2365643793671788</v>
+        <v>-0.239539042676849</v>
       </c>
       <c r="C60">
-        <v>0.1356240297200321</v>
+        <v>0.004392836506243158</v>
       </c>
       <c r="D60">
-        <v>-0.06629453531807568</v>
+        <v>0.05645284066686157</v>
       </c>
       <c r="E60">
-        <v>0.1321615811566642</v>
+        <v>-0.0141795276305288</v>
       </c>
       <c r="F60">
-        <v>0.01669500018246432</v>
+        <v>0.04852889318767976</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09022743007493847</v>
+        <v>-0.08802123198155466</v>
       </c>
       <c r="C61">
-        <v>0.06547469927588266</v>
+        <v>-0.01608247248893304</v>
       </c>
       <c r="D61">
-        <v>-0.06544170275526334</v>
+        <v>0.09867635014991738</v>
       </c>
       <c r="E61">
-        <v>-0.1311532891346754</v>
+        <v>-0.03197828301315878</v>
       </c>
       <c r="F61">
-        <v>0.04296976502770197</v>
+        <v>-0.0261122182185932</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1366262870049896</v>
+        <v>-0.1681848372216196</v>
       </c>
       <c r="C62">
-        <v>0.08463133775015891</v>
+        <v>-0.01637795317145444</v>
       </c>
       <c r="D62">
-        <v>-0.007176423786513712</v>
+        <v>0.02052434641809035</v>
       </c>
       <c r="E62">
-        <v>0.03030445103447405</v>
+        <v>-0.03709331655206828</v>
       </c>
       <c r="F62">
-        <v>-0.03623039542233195</v>
+        <v>-0.01309186128027174</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04410326247279339</v>
+        <v>-0.04363468241616375</v>
       </c>
       <c r="C63">
-        <v>0.01835551844767572</v>
+        <v>-0.004932225139156494</v>
       </c>
       <c r="D63">
-        <v>-0.00618280974706732</v>
+        <v>0.04271398623081215</v>
       </c>
       <c r="E63">
-        <v>-0.06830350320222912</v>
+        <v>-0.01254674224351319</v>
       </c>
       <c r="F63">
-        <v>-0.03234931571652975</v>
+        <v>-0.01322346080900405</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09967275440362848</v>
+        <v>-0.1121066537523761</v>
       </c>
       <c r="C64">
-        <v>0.05867790931894696</v>
+        <v>-0.01225072102233401</v>
       </c>
       <c r="D64">
-        <v>-0.0053509371302451</v>
+        <v>0.03949825956666533</v>
       </c>
       <c r="E64">
-        <v>-0.0539866274512491</v>
+        <v>-0.01952271429695299</v>
       </c>
       <c r="F64">
-        <v>0.05009085408478717</v>
+        <v>-0.01721947609978208</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1197788917686805</v>
+        <v>-0.1401037381267571</v>
       </c>
       <c r="C65">
-        <v>0.02743674557713195</v>
+        <v>-0.03008105270011932</v>
       </c>
       <c r="D65">
-        <v>-0.02721121408661517</v>
+        <v>-0.04084982311452409</v>
       </c>
       <c r="E65">
-        <v>-0.0781670188167195</v>
+        <v>-0.005226458209942105</v>
       </c>
       <c r="F65">
-        <v>-0.05587969237925024</v>
+        <v>-0.04285869006216922</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1103104547280375</v>
+        <v>-0.1363774068890797</v>
       </c>
       <c r="C66">
-        <v>0.1142959767764468</v>
+        <v>-0.01878649412882176</v>
       </c>
       <c r="D66">
-        <v>-0.1152124985538122</v>
+        <v>0.1253906631264943</v>
       </c>
       <c r="E66">
-        <v>-0.1271322281122073</v>
+        <v>-0.05907733677716118</v>
       </c>
       <c r="F66">
-        <v>-0.01134650356376819</v>
+        <v>-0.04444958027691472</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.09022118743926676</v>
+        <v>-0.06622287180491598</v>
       </c>
       <c r="C67">
-        <v>0.08234368533092035</v>
+        <v>-0.004655532364293014</v>
       </c>
       <c r="D67">
-        <v>0.02439168225413202</v>
+        <v>0.05732951205508831</v>
       </c>
       <c r="E67">
-        <v>0.07633087107928986</v>
+        <v>-0.02055427618504278</v>
       </c>
       <c r="F67">
-        <v>0.07408492287997508</v>
+        <v>0.04303146676260097</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1285957457660625</v>
+        <v>-0.1096405258983039</v>
       </c>
       <c r="C68">
-        <v>-0.2739101080447876</v>
+        <v>-0.01998293697442898</v>
       </c>
       <c r="D68">
-        <v>-0.02203512016978075</v>
+        <v>-0.2794886037752048</v>
       </c>
       <c r="E68">
-        <v>-0.03458925783524741</v>
+        <v>0.08659093144157096</v>
       </c>
       <c r="F68">
-        <v>0.002568726890968989</v>
+        <v>-0.04878659560401069</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04359802923782824</v>
+        <v>-0.04071684568818541</v>
       </c>
       <c r="C69">
-        <v>0.02229159951942146</v>
+        <v>-0.0009763306531160311</v>
       </c>
       <c r="D69">
-        <v>0.01378547338691137</v>
+        <v>0.01080682345504768</v>
       </c>
       <c r="E69">
-        <v>0.007270394476528773</v>
+        <v>-0.02587938599670553</v>
       </c>
       <c r="F69">
-        <v>-0.03908168370458297</v>
+        <v>0.0165046602170474</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06463538881042832</v>
+        <v>-0.06608302531670224</v>
       </c>
       <c r="C70">
-        <v>0.05868793942083295</v>
+        <v>0.02660637701802512</v>
       </c>
       <c r="D70">
-        <v>-0.0585658820034655</v>
+        <v>0.001093282733323857</v>
       </c>
       <c r="E70">
-        <v>0.02878727986996727</v>
+        <v>0.04576294633181396</v>
       </c>
       <c r="F70">
-        <v>-0.01415051033745664</v>
+        <v>0.3464827658115521</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1468459459179074</v>
+        <v>-0.1278915580339849</v>
       </c>
       <c r="C71">
-        <v>-0.2763697806425235</v>
+        <v>-0.02307167769172749</v>
       </c>
       <c r="D71">
-        <v>-0.01192071434756853</v>
+        <v>-0.29319527960016</v>
       </c>
       <c r="E71">
-        <v>-0.04853976962837035</v>
+        <v>0.09497204254669002</v>
       </c>
       <c r="F71">
-        <v>0.01947715616501027</v>
+        <v>-0.05125903653571302</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1249573163345952</v>
+        <v>-0.1383219498485413</v>
       </c>
       <c r="C72">
-        <v>0.03632128364777659</v>
+        <v>-0.02415384542833287</v>
       </c>
       <c r="D72">
-        <v>-0.0148597893411552</v>
+        <v>0.01166244121318857</v>
       </c>
       <c r="E72">
-        <v>-0.02681893420035356</v>
+        <v>-0.04379694394488754</v>
       </c>
       <c r="F72">
-        <v>-0.07876730405676222</v>
+        <v>-0.02548690555146947</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2123460921193607</v>
+        <v>-0.2104391608378673</v>
       </c>
       <c r="C73">
-        <v>0.1333498344138636</v>
+        <v>-0.01199442092255016</v>
       </c>
       <c r="D73">
-        <v>-0.1191865540402864</v>
+        <v>0.0267532847951181</v>
       </c>
       <c r="E73">
-        <v>0.4732830554541131</v>
+        <v>-0.07488425709897292</v>
       </c>
       <c r="F73">
-        <v>0.1259052678959399</v>
+        <v>-0.02248952139841989</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08548423126946389</v>
+        <v>-0.0935112417738803</v>
       </c>
       <c r="C74">
-        <v>0.08862890387735275</v>
+        <v>-0.01154796876904287</v>
       </c>
       <c r="D74">
-        <v>-0.000901337966411375</v>
+        <v>0.03216511047291076</v>
       </c>
       <c r="E74">
-        <v>0.04103696300173786</v>
+        <v>-0.05260305408899359</v>
       </c>
       <c r="F74">
-        <v>-0.01071146541871149</v>
+        <v>-0.04092248170621085</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.08457177673441833</v>
+        <v>-0.1295549357606537</v>
       </c>
       <c r="C75">
-        <v>0.06342458618470301</v>
+        <v>-0.02584674357203556</v>
       </c>
       <c r="D75">
-        <v>-0.00410701432575373</v>
+        <v>0.04094176756320059</v>
       </c>
       <c r="E75">
-        <v>0.01557813800071971</v>
+        <v>-0.05844315575924077</v>
       </c>
       <c r="F75">
-        <v>-0.0349902877536442</v>
+        <v>-0.005176257704954689</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.08720336720125969</v>
+        <v>-0.009625432358264316</v>
       </c>
       <c r="C76">
-        <v>0.08551845081097179</v>
+        <v>-0.002156402937722683</v>
       </c>
       <c r="D76">
-        <v>0.004863409171606298</v>
+        <v>0.004581837194221353</v>
       </c>
       <c r="E76">
-        <v>0.06374576247774286</v>
+        <v>-0.01024623763440055</v>
       </c>
       <c r="F76">
-        <v>0.04093876555003828</v>
+        <v>-0.003007112546062143</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06880629652457798</v>
+        <v>-0.08227267467434707</v>
       </c>
       <c r="C77">
-        <v>0.007585802116333957</v>
+        <v>-0.01337069616532912</v>
       </c>
       <c r="D77">
-        <v>-0.0465132694915085</v>
+        <v>0.09227930108215146</v>
       </c>
       <c r="E77">
-        <v>-0.2798953569948913</v>
+        <v>-0.03088112475197048</v>
       </c>
       <c r="F77">
-        <v>0.1837583472194514</v>
+        <v>-0.04245971427076171</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1808655271562484</v>
+        <v>-0.1126828880114862</v>
       </c>
       <c r="C78">
-        <v>0.1192099488686122</v>
+        <v>-0.04595722511949783</v>
       </c>
       <c r="D78">
-        <v>0.1611128899036764</v>
+        <v>0.1108930666054174</v>
       </c>
       <c r="E78">
-        <v>-0.1242914986731467</v>
+        <v>-0.08867873505623271</v>
       </c>
       <c r="F78">
-        <v>0.2383171997223927</v>
+        <v>-0.0804048322684047</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1299078251977881</v>
+        <v>-0.1618823748113614</v>
       </c>
       <c r="C79">
-        <v>0.08480751502082316</v>
+        <v>-0.01972701727277539</v>
       </c>
       <c r="D79">
-        <v>0.007470068391954671</v>
+        <v>0.02688094963827923</v>
       </c>
       <c r="E79">
-        <v>-0.00136958038420101</v>
+        <v>-0.0484258297669283</v>
       </c>
       <c r="F79">
-        <v>-0.00152079646990387</v>
+        <v>-0.004731005337996557</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04801297313099769</v>
+        <v>-0.08171871125174462</v>
       </c>
       <c r="C80">
-        <v>0.03648061197671288</v>
+        <v>0.0007708427131558483</v>
       </c>
       <c r="D80">
-        <v>-0.07004551468613776</v>
+        <v>0.04930310399883626</v>
       </c>
       <c r="E80">
-        <v>0.01020916686735932</v>
+        <v>-0.02473298391881747</v>
       </c>
       <c r="F80">
-        <v>-0.0380633328229514</v>
+        <v>0.01166079575952478</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.120200691387823</v>
+        <v>-0.1216829486121322</v>
       </c>
       <c r="C81">
-        <v>0.0555217911888027</v>
+        <v>-0.02948309896898579</v>
       </c>
       <c r="D81">
-        <v>0.01143569908196111</v>
+        <v>0.03206468159738639</v>
       </c>
       <c r="E81">
-        <v>-0.04067826828811158</v>
+        <v>-0.05942363665453561</v>
       </c>
       <c r="F81">
-        <v>-0.05392763396908304</v>
+        <v>0.006538054027447836</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1167164712429659</v>
+        <v>-0.1616643687273724</v>
       </c>
       <c r="C82">
-        <v>0.06015261423813713</v>
+        <v>-0.02003986012303096</v>
       </c>
       <c r="D82">
-        <v>0.00112057331592399</v>
+        <v>0.02605523609026642</v>
       </c>
       <c r="E82">
-        <v>0.03353141619064159</v>
+        <v>-0.0354829747047375</v>
       </c>
       <c r="F82">
-        <v>-0.07600140157455977</v>
+        <v>-0.05085983048529213</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.0851299198008114</v>
+        <v>-0.06821357484511371</v>
       </c>
       <c r="C83">
-        <v>0.07645215722959181</v>
+        <v>-0.005157922072198274</v>
       </c>
       <c r="D83">
-        <v>0.002260775530532332</v>
+        <v>0.0412541785515395</v>
       </c>
       <c r="E83">
-        <v>-0.004503065962463713</v>
+        <v>-0.0009138916767071367</v>
       </c>
       <c r="F83">
-        <v>0.0001800639636075915</v>
+        <v>0.03074969494184347</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.03424293483564005</v>
+        <v>-0.0605970678449376</v>
       </c>
       <c r="C84">
-        <v>-0.05515721593645167</v>
+        <v>-0.01251093264435627</v>
       </c>
       <c r="D84">
-        <v>-0.03192671062292811</v>
+        <v>0.05647223191749146</v>
       </c>
       <c r="E84">
-        <v>-0.0961152943633984</v>
+        <v>0.003165375622352635</v>
       </c>
       <c r="F84">
-        <v>0.04245653467510888</v>
+        <v>-0.01260016971210541</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1205712767273077</v>
+        <v>-0.1369873274379458</v>
       </c>
       <c r="C85">
-        <v>0.06000935682787607</v>
+        <v>-0.02503363471750204</v>
       </c>
       <c r="D85">
-        <v>-0.009070814038080023</v>
+        <v>0.02526515729800489</v>
       </c>
       <c r="E85">
-        <v>0.01903863478750129</v>
+        <v>-0.04091607410953276</v>
       </c>
       <c r="F85">
-        <v>-0.01422469912329294</v>
+        <v>-0.03967079648334134</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09301919598521918</v>
+        <v>-0.09989156135713698</v>
       </c>
       <c r="C86">
-        <v>0.01997446215832061</v>
+        <v>0.006471993036033248</v>
       </c>
       <c r="D86">
-        <v>0.01718310816024615</v>
+        <v>0.009915201191989837</v>
       </c>
       <c r="E86">
-        <v>-0.02793137104733837</v>
+        <v>-0.1298602510147248</v>
       </c>
       <c r="F86">
-        <v>0.1154974805483825</v>
+        <v>0.8249708660750874</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1228885594806542</v>
+        <v>-0.1030049414199286</v>
       </c>
       <c r="C87">
-        <v>0.06565569780843718</v>
+        <v>-0.0266466202552314</v>
       </c>
       <c r="D87">
-        <v>0.01211183830701546</v>
+        <v>0.06511470843407553</v>
       </c>
       <c r="E87">
-        <v>-0.07627882808677396</v>
+        <v>0.05385317713860144</v>
       </c>
       <c r="F87">
-        <v>0.02450414155523026</v>
+        <v>-0.09100114789992891</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06408988836960482</v>
+        <v>-0.06102728581939836</v>
       </c>
       <c r="C88">
-        <v>0.06861133755251653</v>
+        <v>-0.003936471260568231</v>
       </c>
       <c r="D88">
-        <v>-0.03735015578024135</v>
+        <v>0.05820948099455333</v>
       </c>
       <c r="E88">
-        <v>-0.02354345458150392</v>
+        <v>-0.02386013968964019</v>
       </c>
       <c r="F88">
-        <v>0.0147455164363581</v>
+        <v>-0.008744730792117227</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2424321648701194</v>
+        <v>-0.1312269055374936</v>
       </c>
       <c r="C89">
-        <v>-0.3673569781369828</v>
+        <v>-0.002785136761320897</v>
       </c>
       <c r="D89">
-        <v>0.03914310080086278</v>
+        <v>-0.2853538618720142</v>
       </c>
       <c r="E89">
-        <v>0.01804446908278599</v>
+        <v>0.09414665490864695</v>
       </c>
       <c r="F89">
-        <v>0.06505672778040221</v>
+        <v>-0.03452193538140366</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.156554647118656</v>
+        <v>-0.1393167818381102</v>
       </c>
       <c r="C90">
-        <v>-0.2551407438745928</v>
+        <v>-0.0194329496151471</v>
       </c>
       <c r="D90">
-        <v>-0.01745271824568833</v>
+        <v>-0.2808466841357399</v>
       </c>
       <c r="E90">
-        <v>-0.008690650560450552</v>
+        <v>0.1078386071046749</v>
       </c>
       <c r="F90">
-        <v>0.02508705162904991</v>
+        <v>-0.03900298308863244</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.06874463439879659</v>
+        <v>-0.1157416327733235</v>
       </c>
       <c r="C91">
-        <v>0.06029801918421443</v>
+        <v>-0.01548834780889025</v>
       </c>
       <c r="D91">
-        <v>0.01181575808086958</v>
+        <v>0.00813010123454027</v>
       </c>
       <c r="E91">
-        <v>0.004054950643910883</v>
+        <v>-0.05903230178761714</v>
       </c>
       <c r="F91">
-        <v>-0.004317263367588644</v>
+        <v>0.03150168702931484</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1752191316012159</v>
+        <v>-0.1426897223143949</v>
       </c>
       <c r="C92">
-        <v>-0.2950811431103068</v>
+        <v>-0.009928355853179067</v>
       </c>
       <c r="D92">
-        <v>0.01881349568222186</v>
+        <v>-0.3156039032576606</v>
       </c>
       <c r="E92">
-        <v>-0.03142888162731602</v>
+        <v>0.1030105352250935</v>
       </c>
       <c r="F92">
-        <v>0.05973811316800359</v>
+        <v>-0.03072019562734469</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1742037683648912</v>
+        <v>-0.1437801484776026</v>
       </c>
       <c r="C93">
-        <v>-0.3027094808413768</v>
+        <v>-0.01527032207575775</v>
       </c>
       <c r="D93">
-        <v>-0.04769950007035535</v>
+        <v>-0.2814805326482482</v>
       </c>
       <c r="E93">
-        <v>-0.01713114873100322</v>
+        <v>0.07218208895333725</v>
       </c>
       <c r="F93">
-        <v>-0.02045184250525158</v>
+        <v>-0.02930984893536217</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1132485570764481</v>
+        <v>-0.1333571867697726</v>
       </c>
       <c r="C94">
-        <v>0.08237665564904796</v>
+        <v>-0.02362101220061735</v>
       </c>
       <c r="D94">
-        <v>0.009603766187724483</v>
+        <v>0.05357801910460861</v>
       </c>
       <c r="E94">
-        <v>0.05008956915123607</v>
+        <v>-0.06192556481732964</v>
       </c>
       <c r="F94">
-        <v>-0.008725344902216315</v>
+        <v>-0.02361467501541431</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1526293628512337</v>
+        <v>-0.1289351407096212</v>
       </c>
       <c r="C95">
-        <v>0.06250435787153921</v>
+        <v>-0.007587492509797969</v>
       </c>
       <c r="D95">
-        <v>0.01326567733416362</v>
+        <v>0.08033167756017977</v>
       </c>
       <c r="E95">
-        <v>-0.04327344268605957</v>
+        <v>-0.03928609508462474</v>
       </c>
       <c r="F95">
-        <v>0.03881764345244462</v>
+        <v>0.01283522516750614</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.09527730666113847</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.9893643529702176</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.007676623979764855</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.06022071738009189</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.05113017561709392</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1129543265991037</v>
+        <v>-0.1865370083369382</v>
       </c>
       <c r="C97">
-        <v>-0.01567981162545894</v>
+        <v>0.01337239717500969</v>
       </c>
       <c r="D97">
-        <v>0.03309347928160528</v>
+        <v>-0.006795171471403789</v>
       </c>
       <c r="E97">
-        <v>-0.1133725254233896</v>
+        <v>-0.01217596052795135</v>
       </c>
       <c r="F97">
-        <v>-0.881198094887773</v>
+        <v>0.171437355334228</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2525467735873433</v>
+        <v>-0.2073409884385711</v>
       </c>
       <c r="C98">
-        <v>0.1234324914264947</v>
+        <v>-0.007735569239910479</v>
       </c>
       <c r="D98">
-        <v>0.04740384185893651</v>
+        <v>0.01699324426593198</v>
       </c>
       <c r="E98">
-        <v>0.2963308401696628</v>
+        <v>0.0839697815677182</v>
       </c>
       <c r="F98">
-        <v>-0.1172407437398748</v>
+        <v>0.1420782169343979</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.07762292399548365</v>
+        <v>-0.05874903008441038</v>
       </c>
       <c r="C99">
-        <v>0.05834323420801227</v>
+        <v>0.002671013099268363</v>
       </c>
       <c r="D99">
-        <v>0.01597237906262203</v>
+        <v>0.02837388309772933</v>
       </c>
       <c r="E99">
-        <v>0.04077123782923265</v>
+        <v>-0.02258016331685949</v>
       </c>
       <c r="F99">
-        <v>0.03704868545399947</v>
+        <v>-0.004327794132765342</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1229716102598796</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.04564627392349304</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.3289715717995718</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.9053427519233532</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.0573111314480519</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.04372254160350396</v>
+        <v>-0.02782378657915065</v>
       </c>
       <c r="C101">
-        <v>0.03206360041578683</v>
+        <v>-0.009593127670257525</v>
       </c>
       <c r="D101">
-        <v>-0.01586742127465955</v>
+        <v>0.02416897618169544</v>
       </c>
       <c r="E101">
-        <v>-0.05752529003945549</v>
+        <v>-0.007973099677946769</v>
       </c>
       <c r="F101">
-        <v>0.03099943550016737</v>
+        <v>0.009142556333507579</v>
       </c>
     </row>
     <row r="102" spans="1:6">
